--- a/4. Statistics/001_ArtithmeticMean/002_StockMarketPerformance/StockMarketData_Analysis.xlsx
+++ b/4. Statistics/001_ArtithmeticMean/002_StockMarketPerformance/StockMarketData_Analysis.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinodkakumani/git/vinodkakumani/AI-ML-By-Satish-Yellanki/4. Statistics/001_ArtithmeticMean/002_StockMarketPerformance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E1272-97B2-2C44-9529-2FA8E8A2C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F04BAD-C5A0-E646-A6AA-72FD88E8D014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{A46E80F9-7C92-A94F-A37E-2C9F77B36E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="StockMarketData" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">StockMarketData!$A$1:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>Stock Symbol</t>
   </si>
@@ -132,6 +131,15 @@
   </si>
   <si>
     <t>Alphabet Inc.</t>
+  </si>
+  <si>
+    <t>Daily Price Change</t>
+  </si>
+  <si>
+    <t>Percentage of Change</t>
+  </si>
+  <si>
+    <t>High Volume Indicator</t>
   </si>
 </sst>
 </file>
@@ -169,13 +177,22 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
@@ -200,8 +217,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{6EEC77AE-0DF9-EB46-8A27-3B5D5FDDC0AF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="12" unboundColumnsRight="3">
+    <queryTableFields count="11">
       <queryTableField id="1" name="Stock Symbol" tableColumnId="1"/>
       <queryTableField id="2" name="Company Name" tableColumnId="2"/>
       <queryTableField id="3" name="Date" tableColumnId="3"/>
@@ -210,23 +227,35 @@
       <queryTableField id="6" name="Daily High" tableColumnId="6"/>
       <queryTableField id="7" name="Daily Low" tableColumnId="7"/>
       <queryTableField id="8" name="Volume" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD28345A-139D-1041-AC3A-AEE14C016BFC}" name="StockMarketData" displayName="StockMarketData" ref="A1:H51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H51" xr:uid="{FD28345A-139D-1041-AC3A-AEE14C016BFC}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B3D151FF-7718-7649-85CC-6F4903DB1A99}" uniqueName="1" name="Stock Symbol" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{98F723FE-C069-054F-B8F0-CF96CC27F177}" uniqueName="2" name="Company Name" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{479F3E26-F275-6F4A-B875-EB631ACDA44E}" uniqueName="3" name="Date" queryTableFieldId="3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD28345A-139D-1041-AC3A-AEE14C016BFC}" name="StockMarketData" displayName="StockMarketData" ref="A1:K51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K51" xr:uid="{FD28345A-139D-1041-AC3A-AEE14C016BFC}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{B3D151FF-7718-7649-85CC-6F4903DB1A99}" uniqueName="1" name="Stock Symbol" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{98F723FE-C069-054F-B8F0-CF96CC27F177}" uniqueName="2" name="Company Name" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{479F3E26-F275-6F4A-B875-EB631ACDA44E}" uniqueName="3" name="Date" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{5D907747-266C-224E-A14F-2B2A2C658A46}" uniqueName="4" name="Opening Price" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C730F10F-58C0-0E48-8484-A145D54AD042}" uniqueName="5" name="Closing Price" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{1ABB9454-699D-8449-BCCB-D6F70A6B6181}" uniqueName="6" name="Daily High" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{23903D94-4C36-BD40-90CB-A933A261F1DD}" uniqueName="7" name="Daily Low" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{65CB0F7D-6227-1F4C-A66C-DD8EB8412002}" uniqueName="8" name="Volume" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{CF05BAFA-D6B9-9643-9C78-FBA2DF4FDF65}" uniqueName="9" name="Daily Price Change" queryTableFieldId="9" dataDxfId="2">
+      <calculatedColumnFormula>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{01EFE279-20DC-B543-BC39-422221D7DCC3}" uniqueName="10" name="Percentage of Change" queryTableFieldId="10" dataDxfId="1">
+      <calculatedColumnFormula>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{DD273FAF-D688-6944-BDFB-BF735F56AEC4}" uniqueName="11" name="High Volume Indicator" queryTableFieldId="11" dataDxfId="0">
+      <calculatedColumnFormula>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BCA734-F727-5A41-BF7B-0937D08A264D}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,9 +594,11 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,15 +623,24 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45627</v>
       </c>
       <c r="D2">
@@ -618,15 +658,27 @@
       <c r="H2">
         <v>43445445</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="I2">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>32.480000000000018</v>
+      </c>
+      <c r="J2" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>0.52524444767547274</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>45628</v>
       </c>
       <c r="D3">
@@ -644,15 +696,27 @@
       <c r="H3">
         <v>74599776</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="I3">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>54.980000000000018</v>
+      </c>
+      <c r="J3" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>0.30744260811211938</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45629</v>
       </c>
       <c r="D4">
@@ -670,15 +734,27 @@
       <c r="H4">
         <v>53082482</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="I4">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>50.289999999999964</v>
+      </c>
+      <c r="J4" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-3.6572802197802123</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>45630</v>
       </c>
       <c r="D5">
@@ -696,15 +772,27 @@
       <c r="H5">
         <v>49766452</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="I5">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>41.449999999999932</v>
+      </c>
+      <c r="J5" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-0.83840738274188409</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>45631</v>
       </c>
       <c r="D6">
@@ -722,15 +810,27 @@
       <c r="H6">
         <v>71290847</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="I6">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>54.740000000000009</v>
+      </c>
+      <c r="J6" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>6.2899271692643515</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>45632</v>
       </c>
       <c r="D7">
@@ -748,15 +848,27 @@
       <c r="H7">
         <v>35241574</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="I7">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>78.480000000000018</v>
+      </c>
+      <c r="J7" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-4.4309701492537368</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>45633</v>
       </c>
       <c r="D8">
@@ -774,15 +886,27 @@
       <c r="H8">
         <v>9421474</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="I8">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>45.600000000000023</v>
+      </c>
+      <c r="J8" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>7.4742702885102057</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>45634</v>
       </c>
       <c r="D9">
@@ -800,15 +924,27 @@
       <c r="H9">
         <v>64185660</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="I9">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>80.38</v>
+      </c>
+      <c r="J9" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>3.8670963440382344</v>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>45635</v>
       </c>
       <c r="D10">
@@ -826,15 +962,27 @@
       <c r="H10">
         <v>61085755</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="I10">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>51.769999999999982</v>
+      </c>
+      <c r="J10" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>1.5134177904917605</v>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>45636</v>
       </c>
       <c r="D11">
@@ -852,15 +1000,27 @@
       <c r="H11">
         <v>79586225</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="I11">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>53.039999999999992</v>
+      </c>
+      <c r="J11" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-13.998654406817664</v>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>45637</v>
       </c>
       <c r="D12">
@@ -878,15 +1038,27 @@
       <c r="H12">
         <v>23116973</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="I12">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>15.610000000000014</v>
+      </c>
+      <c r="J12" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-0.430531886267843</v>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>45638</v>
       </c>
       <c r="D13">
@@ -904,15 +1076,27 @@
       <c r="H13">
         <v>82823647</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="I13">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>24.920000000000016</v>
+      </c>
+      <c r="J13" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>5.7649147489364676</v>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>45639</v>
       </c>
       <c r="D14">
@@ -930,15 +1114,27 @@
       <c r="H14">
         <v>72863764</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="I14">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>52.610000000000014</v>
+      </c>
+      <c r="J14" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>7.0382891736771747</v>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>45640</v>
       </c>
       <c r="D15">
@@ -956,15 +1152,27 @@
       <c r="H15">
         <v>15171529</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="I15">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>77.390000000000043</v>
+      </c>
+      <c r="J15" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>6.226140925547381</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>45641</v>
       </c>
       <c r="D16">
@@ -982,15 +1190,27 @@
       <c r="H16">
         <v>48152875</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="I16">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>57.920000000000073</v>
+      </c>
+      <c r="J16" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-1.9454185969317832</v>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>45642</v>
       </c>
       <c r="D17">
@@ -1008,15 +1228,27 @@
       <c r="H17">
         <v>50205988</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="I17">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>59.610000000000014</v>
+      </c>
+      <c r="J17" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>4.5596165368484032</v>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>45643</v>
       </c>
       <c r="D18">
@@ -1034,15 +1266,27 @@
       <c r="H18">
         <v>2609871</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="I18">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>74.559999999999945</v>
+      </c>
+      <c r="J18" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>1.0760048187493174</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>45644</v>
       </c>
       <c r="D19">
@@ -1060,15 +1304,27 @@
       <c r="H19">
         <v>87594326</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="I19">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>47.620000000000005</v>
+      </c>
+      <c r="J19" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-11.770083419037816</v>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>45645</v>
       </c>
       <c r="D20">
@@ -1086,15 +1342,27 @@
       <c r="H20">
         <v>72883250</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="I20">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>52.259999999999991</v>
+      </c>
+      <c r="J20" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>5.5669601447622545</v>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>45646</v>
       </c>
       <c r="D21">
@@ -1112,15 +1380,27 @@
       <c r="H21">
         <v>72447899</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="I21">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>70.859999999999985</v>
+      </c>
+      <c r="J21" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>0.83396226415093577</v>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>45647</v>
       </c>
       <c r="D22">
@@ -1138,15 +1418,27 @@
       <c r="H22">
         <v>41103071</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="I22">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>83.37</v>
+      </c>
+      <c r="J22" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>4.0886158547260107</v>
+      </c>
+      <c r="K22" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>45648</v>
       </c>
       <c r="D23">
@@ -1164,15 +1456,27 @@
       <c r="H23">
         <v>22215727</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="I23">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>64.62</v>
+      </c>
+      <c r="J23" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-1.4982593751377102</v>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>45649</v>
       </c>
       <c r="D24">
@@ -1190,15 +1494,27 @@
       <c r="H24">
         <v>15442303</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="I24">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>31.059999999999988</v>
+      </c>
+      <c r="J24" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-8.8215767634854743</v>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>45650</v>
       </c>
       <c r="D25">
@@ -1216,15 +1532,27 @@
       <c r="H25">
         <v>20357227</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="I25">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>43.959999999999923</v>
+      </c>
+      <c r="J25" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>0.63152254344108738</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>45651</v>
       </c>
       <c r="D26">
@@ -1242,15 +1570,27 @@
       <c r="H26">
         <v>49652425</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="I26">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>40.589999999999975</v>
+      </c>
+      <c r="J26" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>10.290152087153496</v>
+      </c>
+      <c r="K26" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>45652</v>
       </c>
       <c r="D27">
@@ -1268,15 +1608,27 @@
       <c r="H27">
         <v>35845842</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="I27">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>37.52000000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-0.68658928130401897</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>45653</v>
       </c>
       <c r="D28">
@@ -1294,15 +1646,27 @@
       <c r="H28">
         <v>82166880</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="I28">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>60.980000000000018</v>
+      </c>
+      <c r="J28" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-2.4071494893221921</v>
+      </c>
+      <c r="K28" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>45654</v>
       </c>
       <c r="D29">
@@ -1320,15 +1684,27 @@
       <c r="H29">
         <v>74378482</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="I29">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>11.690000000000055</v>
+      </c>
+      <c r="J29" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>4.6275484570434296E-2</v>
+      </c>
+      <c r="K29" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>45655</v>
       </c>
       <c r="D30">
@@ -1346,15 +1722,27 @@
       <c r="H30">
         <v>4975172</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="I30">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>36.079999999999927</v>
+      </c>
+      <c r="J30" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-0.20148115878892187</v>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>45656</v>
       </c>
       <c r="D31">
@@ -1372,15 +1760,27 @@
       <c r="H31">
         <v>99491434</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="I31">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>31.590000000000003</v>
+      </c>
+      <c r="J31" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-9.3163473694447134</v>
+      </c>
+      <c r="K31" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>45657</v>
       </c>
       <c r="D32">
@@ -1398,15 +1798,27 @@
       <c r="H32">
         <v>94815320</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="I32">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>20.759999999999991</v>
+      </c>
+      <c r="J32" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>1.4063120517672301</v>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>45658</v>
       </c>
       <c r="D33">
@@ -1424,15 +1836,27 @@
       <c r="H33">
         <v>8229860</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="I33">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>39.080000000000041</v>
+      </c>
+      <c r="J33" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>3.4990733047868505</v>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>45659</v>
       </c>
       <c r="D34">
@@ -1450,15 +1874,27 @@
       <c r="H34">
         <v>69171423</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="I34">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>16.620000000000005</v>
+      </c>
+      <c r="J34" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>1.1869018577594301</v>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>45660</v>
       </c>
       <c r="D35">
@@ -1476,15 +1912,27 @@
       <c r="H35">
         <v>71669655</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="I35">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>58.449999999999989</v>
+      </c>
+      <c r="J35" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>8.199935365722288</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>45661</v>
       </c>
       <c r="D36">
@@ -1502,15 +1950,27 @@
       <c r="H36">
         <v>91981848</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="I36">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>59.649999999999977</v>
+      </c>
+      <c r="J36" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>5.3853196187190651E-2</v>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>45662</v>
       </c>
       <c r="D37">
@@ -1528,15 +1988,27 @@
       <c r="H37">
         <v>60897525</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="I37">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>69.470000000000027</v>
+      </c>
+      <c r="J37" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-2.5215499028141646</v>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>45663</v>
       </c>
       <c r="D38">
@@ -1554,15 +2026,27 @@
       <c r="H38">
         <v>88505924</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="I38">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>7.6700000000000159</v>
+      </c>
+      <c r="J38" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>0.70544554455446107</v>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>45664</v>
       </c>
       <c r="D39">
@@ -1580,15 +2064,27 @@
       <c r="H39">
         <v>77476340</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="I39">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>75.999999999999972</v>
+      </c>
+      <c r="J39" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>3.230943301345182</v>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>45665</v>
       </c>
       <c r="D40">
@@ -1606,15 +2102,27 @@
       <c r="H40">
         <v>75235718</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="I40">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>62.379999999999995</v>
+      </c>
+      <c r="J40" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>2.1188754378254515</v>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>45666</v>
       </c>
       <c r="D41">
@@ -1632,15 +2140,27 @@
       <c r="H41">
         <v>48699350</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="I41">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>19.420000000000002</v>
+      </c>
+      <c r="J41" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-2.8195313229390306</v>
+      </c>
+      <c r="K41" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>45667</v>
       </c>
       <c r="D42">
@@ -1658,15 +2178,27 @@
       <c r="H42">
         <v>93849844</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="I42">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>77.110000000000014</v>
+      </c>
+      <c r="J42" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>2.9651463196956178</v>
+      </c>
+      <c r="K42" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>45668</v>
       </c>
       <c r="D43">
@@ -1684,15 +2216,27 @@
       <c r="H43">
         <v>88591510</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="I43">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>82.340000000000032</v>
+      </c>
+      <c r="J43" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-1.4482426383508249</v>
+      </c>
+      <c r="K43" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>45669</v>
       </c>
       <c r="D44">
@@ -1710,15 +2254,27 @@
       <c r="H44">
         <v>50974882</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="I44">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>54.629999999999995</v>
+      </c>
+      <c r="J44" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-6.7357984263428401</v>
+      </c>
+      <c r="K44" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>45670</v>
       </c>
       <c r="D45">
@@ -1736,15 +2292,27 @@
       <c r="H45">
         <v>94225135</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="I45">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>72.399999999999977</v>
+      </c>
+      <c r="J45" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-0.87111297246362152</v>
+      </c>
+      <c r="K45" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>45671</v>
       </c>
       <c r="D46">
@@ -1762,15 +2330,27 @@
       <c r="H46">
         <v>10069945</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="I46">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>50.739999999999981</v>
+      </c>
+      <c r="J46" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>7.8225964362639466</v>
+      </c>
+      <c r="K46" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>45672</v>
       </c>
       <c r="D47">
@@ -1788,15 +2368,27 @@
       <c r="H47">
         <v>78766898</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="I47">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>39.910000000000082</v>
+      </c>
+      <c r="J47" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-2.1660794898929634</v>
+      </c>
+      <c r="K47" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>45673</v>
       </c>
       <c r="D48">
@@ -1814,15 +2406,27 @@
       <c r="H48">
         <v>54045576</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="I48">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>84.580000000000041</v>
+      </c>
+      <c r="J48" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>0.74634976993587965</v>
+      </c>
+      <c r="K48" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>45674</v>
       </c>
       <c r="D49">
@@ -1840,15 +2444,27 @@
       <c r="H49">
         <v>17997286</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="I49">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>13.030000000000001</v>
+      </c>
+      <c r="J49" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>-1.2092022339498825</v>
+      </c>
+      <c r="K49" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>45675</v>
       </c>
       <c r="D50">
@@ -1866,15 +2482,27 @@
       <c r="H50">
         <v>45583053</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="I50">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>21.699999999999989</v>
+      </c>
+      <c r="J50" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>1.2949844148484131</v>
+      </c>
+      <c r="K50" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>45676</v>
       </c>
       <c r="D51">
@@ -1892,24 +2520,25 @@
       <c r="H51">
         <v>49835104</v>
       </c>
+      <c r="I51">
+        <f>(StockMarketData[[#This Row],[Daily High]]-StockMarketData[[#This Row],[Daily Low]])</f>
+        <v>24.529999999999973</v>
+      </c>
+      <c r="J51" s="2">
+        <f>((StockMarketData[[#This Row],[Closing Price]]-StockMarketData[[#This Row],[Opening Price]]) / StockMarketData[[#This Row],[Opening Price]]) * 100</f>
+        <v>1.4031229957723104</v>
+      </c>
+      <c r="K51" t="str">
+        <f>IF(StockMarketData[[#This Row],[Volume]] &gt; AVERAGE(StockMarketData[Volume]), "High", "Normal")</f>
+        <v>Normal</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D264A132-1602-0142-8EC7-0F144F01F8A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
